--- a/TournamentTree.UnitTests/bin/Debug/netcoreapp3.1/KnockOutStageGroupExportTest.xlsx
+++ b/TournamentTree.UnitTests/bin/Debug/netcoreapp3.1/KnockOutStageGroupExportTest.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KO" sheetId="2" r:id="R8c73e039de0e4307"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KO" sheetId="2" r:id="R493bd784fe0843ce"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/TournamentTree.UnitTests/bin/Debug/netcoreapp3.1/KnockOutStageGroupExportTest.xlsx
+++ b/TournamentTree.UnitTests/bin/Debug/netcoreapp3.1/KnockOutStageGroupExportTest.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KO" sheetId="2" r:id="R493bd784fe0843ce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KO" sheetId="2" r:id="R1d2d8c79c21c4af3"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/TournamentTree.UnitTests/bin/Debug/netcoreapp3.1/KnockOutStageGroupExportTest.xlsx
+++ b/TournamentTree.UnitTests/bin/Debug/netcoreapp3.1/KnockOutStageGroupExportTest.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KO" sheetId="2" r:id="Rc448018908824acc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KO" sheetId="2" r:id="R24c38661f2f54624"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/TournamentTree.UnitTests/bin/Debug/netcoreapp3.1/KnockOutStageGroupExportTest.xlsx
+++ b/TournamentTree.UnitTests/bin/Debug/netcoreapp3.1/KnockOutStageGroupExportTest.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KO" sheetId="2" r:id="R24c38661f2f54624"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KO" sheetId="2" r:id="R4f80a6f5f2084210"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/TournamentTree.UnitTests/bin/Debug/netcoreapp3.1/KnockOutStageGroupExportTest.xlsx
+++ b/TournamentTree.UnitTests/bin/Debug/netcoreapp3.1/KnockOutStageGroupExportTest.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KO" sheetId="2" r:id="R4f80a6f5f2084210"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KO" sheetId="2" r:id="Rf754ddfb5a4e4165"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/TournamentTree.UnitTests/bin/Debug/netcoreapp3.1/KnockOutStageGroupExportTest.xlsx
+++ b/TournamentTree.UnitTests/bin/Debug/netcoreapp3.1/KnockOutStageGroupExportTest.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KO" sheetId="2" r:id="Rf754ddfb5a4e4165"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KO" sheetId="2" r:id="R3f1a4b57413f4d42"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/TournamentTree.UnitTests/bin/Debug/netcoreapp3.1/KnockOutStageGroupExportTest.xlsx
+++ b/TournamentTree.UnitTests/bin/Debug/netcoreapp3.1/KnockOutStageGroupExportTest.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KO" sheetId="2" r:id="R3f1a4b57413f4d42"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KO" sheetId="2" r:id="R64611ae09d63471c"/>
   </x:sheets>
 </x:workbook>
 </file>
